--- a/biology/Médecine/Témazépam/Témazépam.xlsx
+++ b/biology/Médecine/Témazépam/Témazépam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le témazépam est une substance chimique de la famille des benzodiazépines commercialisée notamment sous le nom de Normison en France (d'autres spécialités existent comme Euhypnos, Levanxol, Planum, Restoril). Comme toutes les substances de cette famille, elle possède des propriétés anxiolytiques, hypnotiques ou sédatives, anticonvulsantes, et myorelaxantes, mais elle est surtout prescrite comme hypnotique dans le traitement à court terme d'insomnie sévère (difficultés d'endormissement) lorsque d'autres traitements, notamment des règles hygiéno-diététiques, ont échoué.
-En France, le Normison a connu un arrêt de commercialisation depuis 2013 à la suite de la fermeture du laboratoire le fabriquant (Alkopharm/Génopharm). Aucun générique n’était disponible, cependant la société Primius Lab Limited avait récupéré les droits de commercialisation du Normison. Il a par la suite été une nouvelle fois retiré du marché[3].
+En France, le Normison a connu un arrêt de commercialisation depuis 2013 à la suite de la fermeture du laboratoire le fabriquant (Alkopharm/Génopharm). Aucun générique n’était disponible, cependant la société Primius Lab Limited avait récupéré les droits de commercialisation du Normison. Il a par la suite été une nouvelle fois retiré du marché.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le témazépam a été d'abord synthétisé en 1964, mais il a été utilisé en 1969 pour sa capacité à traiter l'insomnie[4]. À la fin des années 1980, le témazépam était un des somnifères les plus vendus et largement disponible sur le marché : c'est devenu un des médicaments les plus largement prescrits.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le témazépam a été d'abord synthétisé en 1964, mais il a été utilisé en 1969 pour sa capacité à traiter l'insomnie. À la fin des années 1980, le témazépam était un des somnifères les plus vendus et largement disponible sur le marché : c'est devenu un des médicaments les plus largement prescrits.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,8 +588,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mécanisme d’action
-Il agit d'une manière similaire aux autres molécules de la classe des benzodiazépines, à savoir sur les récepteurs GABA.
+          <t>Mécanisme d’action</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il agit d'une manière similaire aux autres molécules de la classe des benzodiazépines, à savoir sur les récepteurs GABA.
 </t>
         </is>
       </c>
@@ -584,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +623,9 @@
           <t>Contre indication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les benzodiazépines, le témazépam ne doit pas être utilisé en cas d'hypersensibilité aux benzodiazépines :
 insuffisance respiratoire sévère
@@ -630,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
+          <t>Témazépam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,13 +671,85 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets secondaires de la témazépam sont ceux des benzodiazépines et sont en relation avec le système nerveux central
-Effets secondaires fréquents
-L'effet le plus important est la somnolence
-Effets secondaires rares
-Les effets secondaires peuvent inclure[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Témazépam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Effets secondaires fréquents</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet le plus important est la somnolence
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Témazépam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets secondaires rares</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires peuvent inclure :
 asthénie (fatigue)
 ataxie
 prurit
@@ -669,8 +764,43 @@
 une diarrhée
 Une dose plus importante peut induire une dépression respiratoire
 D'autre part, comme beaucoup de médicaments psychotropes le témazépam induit une accoutumance et une dépendance qui peuvent poser problème en cas de  sevrage, surtout brutal qui peuvent se traduire par des crampes musculaires et abdominales, des convulsions, une dépression, une insomnie dite de rebond, une transpiration excessive, des tremblements, des vomissements.
-Effets secondaires possible et éventuels
-D'autres effets plus rares ont été rapportés (moins de 0.5 %): 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Témazépam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Effets secondaires possible et éventuels</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres effets plus rares ont été rapportés (moins de 0.5 %): 
 hyperhidrose,
 modification de la libido
 des hallucinations
@@ -679,73 +809,77 @@
 des troubles gastro-intestinaux
 des cauchemars,
 des réactions paradoxales  : agitation, agressivité voire violence, excitation ,
-Cette molécule a une action rapide et est dosée le plus souvent dans des médicaments somnifères. De fait, après la prise de celle-ci, il peut résulter un état d'hébétude, de somnolence, une diminution des fonctions psychomotrices et cognitives peuvent persister le jour suivant, qui peut augmenter le risque d'accidents de la circulation ou de chutes[6].
+Cette molécule a une action rapide et est dosée le plus souvent dans des médicaments somnifères. De fait, après la prise de celle-ci, il peut résulter un état d'hébétude, de somnolence, une diminution des fonctions psychomotrices et cognitives peuvent persister le jour suivant, qui peut augmenter le risque d'accidents de la circulation ou de chutes.
 C'est pourquoi les spécialités pharmaceutiques portent un pictogramme (danger de risque 3 : ne pas conduire après la prise) sur les boîtes.
 La prise de boissons alcoolisées en même temps que le traitement est dangereuse et peut provoquer la mort.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Témazépam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accoutumance - Tolérance - Dépendance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme les autres produits de sa classe, il présente un potentiel addictif important si consommé quotidiennement.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>T%C3%A9maz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Témazépam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9maz%C3%A9pam</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Pharmacocinétique et devenir dans l’organisme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'administration orale de 15 à 45 mg de témazépam est rapidement absorbée en moins de 30 minutes ; le pic plasmatique est atteint en un peu plus d'une heure et demie. Il n'y a aucun catabolite actif formé (le seul catabolite significatif dans le sang était l'O-conjugate). La dégradation dans le corps humain du médicament indique une demi-vie courte d'environ 8,8 heures[7]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration orale de 15 à 45 mg de témazépam est rapidement absorbée en moins de 30 minutes ; le pic plasmatique est atteint en un peu plus d'une heure et demie. Il n'y a aucun catabolite actif formé (le seul catabolite significatif dans le sang était l'O-conjugate). La dégradation dans le corps humain du médicament indique une demi-vie courte d'environ 8,8 heures
 La biodisponibilité du témazépam est de presque 100 % par l'intestin. La substance est transformée par métabolisme par la conjugaison et déméthylation avant l'excrétion. La plupart de la molécule est excrétée dans l'urine et 20 % par les fèces.
-Le catabolite important était l'O-conjugate de témazépam (90 %) ; l'O-conjugate de N-desméthyl témazepam était un métabolite mineur (7 %)[8].
+Le catabolite important était l'O-conjugate de témazépam (90 %) ; l'O-conjugate de N-desméthyl témazepam était un métabolite mineur (7 %).
 </t>
         </is>
       </c>
